--- a/teaching/voc_data_science/topic1/lameness_Herd_B.xlsx
+++ b/teaching/voc_data_science/topic1/lameness_Herd_B.xlsx
@@ -366,7 +366,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>90060</t>
+          <t>69298</t>
         </is>
       </c>
       <c r="B2">
@@ -376,17 +376,19 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10336</t>
-        </is>
-      </c>
-      <c r="B3">
-        <v>0</v>
+          <t>07868</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Not being milked due to clinical mastitis</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>53581</t>
+          <t>44830</t>
         </is>
       </c>
       <c r="B4">
@@ -396,7 +398,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>45561</t>
+          <t>94638</t>
         </is>
       </c>
       <c r="B5">
@@ -406,17 +408,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>60296</t>
+          <t>47452</t>
         </is>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>90574</t>
+          <t>62420</t>
         </is>
       </c>
       <c r="B7">
@@ -426,7 +428,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>87657</t>
+          <t>86112</t>
         </is>
       </c>
       <c r="B8">
@@ -436,7 +438,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>16491</t>
+          <t>23853</t>
         </is>
       </c>
       <c r="B9">
@@ -446,17 +448,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>77045</t>
+          <t>35117</t>
         </is>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>47220</t>
+          <t>25384</t>
         </is>
       </c>
       <c r="B11">
@@ -466,27 +468,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>89916</t>
+          <t>20750</t>
         </is>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>56236</t>
+          <t>88011</t>
         </is>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>35777</t>
+          <t>16027</t>
         </is>
       </c>
       <c r="B14">
@@ -496,7 +498,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>54741</t>
+          <t>67405</t>
         </is>
       </c>
       <c r="B15">
@@ -506,27 +508,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>28991</t>
+          <t>71725</t>
         </is>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>34464</t>
+          <t>28563</t>
         </is>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>11171</t>
+          <t>97054</t>
         </is>
       </c>
       <c r="B18">
@@ -536,17 +538,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>00215</t>
+          <t>07094</t>
         </is>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>04277</t>
+          <t>32717</t>
         </is>
       </c>
       <c r="B20">
@@ -556,7 +558,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>53955</t>
+          <t>61135</t>
         </is>
       </c>
       <c r="B21">
@@ -566,7 +568,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>57305</t>
+          <t>72616</t>
         </is>
       </c>
       <c r="B22">
@@ -576,7 +578,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>27143</t>
+          <t>35738</t>
         </is>
       </c>
       <c r="B23">
@@ -586,7 +588,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>37832</t>
+          <t>92878</t>
         </is>
       </c>
       <c r="B24">
@@ -596,47 +598,49 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>45589</t>
-        </is>
-      </c>
-      <c r="B25">
-        <v>0</v>
+          <t>75724</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Not being milked due to clinical mastitis</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>75355</t>
+          <t>93075</t>
         </is>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>75726</t>
+          <t>81310</t>
         </is>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>52429</t>
+          <t>57383</t>
         </is>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>24465</t>
+          <t>55676</t>
         </is>
       </c>
       <c r="B29">
@@ -646,7 +650,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>93014</t>
+          <t>87855</t>
         </is>
       </c>
       <c r="B30">
@@ -656,7 +660,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>37403</t>
+          <t>70780</t>
         </is>
       </c>
       <c r="B31">
@@ -666,7 +670,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>42976</t>
+          <t>48152</t>
         </is>
       </c>
       <c r="B32">
@@ -676,17 +680,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>60811</t>
+          <t>80369</t>
         </is>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>24413</t>
+          <t>13517</t>
         </is>
       </c>
       <c r="B34">
@@ -696,27 +700,27 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>84907</t>
+          <t>88569</t>
         </is>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>55471</t>
+          <t>72027</t>
         </is>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>02792</t>
+          <t>29533</t>
         </is>
       </c>
       <c r="B37">
@@ -726,7 +730,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>94090</t>
+          <t>85609</t>
         </is>
       </c>
       <c r="B38">
@@ -736,7 +740,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20526</t>
+          <t>97473</t>
         </is>
       </c>
       <c r="B39">
@@ -746,7 +750,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>02558</t>
+          <t>30682</t>
         </is>
       </c>
       <c r="B40">
@@ -756,7 +760,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>05262</t>
+          <t>33491</t>
         </is>
       </c>
       <c r="B41">
@@ -766,27 +770,29 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>18329</t>
+          <t>58735</t>
         </is>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>91000</t>
-        </is>
-      </c>
-      <c r="B43">
-        <v>0</v>
+          <t>67473</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Not being milked due to clinical mastitis</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>39851</t>
+          <t>62919</t>
         </is>
       </c>
       <c r="B44">
@@ -796,27 +802,27 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>00347</t>
+          <t>10979</t>
         </is>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>45934</t>
+          <t>82048</t>
         </is>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>33121</t>
+          <t>90999</t>
         </is>
       </c>
       <c r="B47">
@@ -826,7 +832,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>16832</t>
+          <t>21049</t>
         </is>
       </c>
       <c r="B48">
@@ -836,7 +842,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>42209</t>
+          <t>81953</t>
         </is>
       </c>
       <c r="B49">
@@ -846,7 +852,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>27245</t>
+          <t>49845</t>
         </is>
       </c>
       <c r="B50">
@@ -856,7 +862,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>23254</t>
+          <t>33975</t>
         </is>
       </c>
       <c r="B51">
